--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y200"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="R199" s="2" t="inlineStr"/>
     </row>
-    <row r="200">
+    <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
           <t>A 38296-2023</t>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12356,6 +12356,63 @@
         <v>0</v>
       </c>
       <c r="R200" s="2" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>A 42837-2023</t>
+        </is>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C201" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>MJÖLBY</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 57042-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 57042-2021.xlsx", "A 57042-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 57042-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 57042-2021.png", "A 57042-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 57042-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 57042-2021.docx", "A 57042-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 57042-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 57042-2021.docx", "A 57042-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 57042-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 57042-2021.docx", "A 57042-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 57042-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 57042-2021.docx", "A 57042-2021")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 61056-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 61056-2019.xlsx", "A 61056-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 61056-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 61056-2019.png", "A 61056-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/knärot/A 61056-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/knärot/A 61056-2019.png", "A 61056-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 61056-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 61056-2019.docx", "A 61056-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 61056-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 61056-2019.docx", "A 61056-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 61056-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 61056-2019.docx", "A 61056-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 61056-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 61056-2019.docx", "A 61056-2019")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -813,27 +813,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 67603-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 67603-2021.xlsx", "A 67603-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 67603-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 67603-2021.png", "A 67603-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 67603-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 67603-2021.docx", "A 67603-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 67603-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 67603-2021.docx", "A 67603-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 67603-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 67603-2021.docx", "A 67603-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 67603-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 67603-2021.docx", "A 67603-2021")</f>
         <v/>
       </c>
     </row>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 35484-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 35484-2020.xlsx", "A 35484-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 35484-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 35484-2020.png", "A 35484-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 35484-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 35484-2020.docx", "A 35484-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 35484-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 35484-2020.docx", "A 35484-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 35484-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 35484-2020.docx", "A 35484-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 35484-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 35484-2020.docx", "A 35484-2020")</f>
         <v/>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,27 +995,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 30642-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 30642-2021.xlsx", "A 30642-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 30642-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 30642-2021.png", "A 30642-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 30642-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 30642-2021.docx", "A 30642-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 30642-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 30642-2021.docx", "A 30642-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 30642-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 30642-2021.docx", "A 30642-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 30642-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 30642-2021.docx", "A 30642-2021")</f>
         <v/>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1080,27 +1080,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 67960-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 67960-2018.xlsx", "A 67960-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 67960-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 67960-2018.png", "A 67960-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 67960-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 67960-2018.docx", "A 67960-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 67960-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 67960-2018.docx", "A 67960-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 67960-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 67960-2018.docx", "A 67960-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 67960-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 67960-2018.docx", "A 67960-2018")</f>
         <v/>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1165,27 +1165,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 49427-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 49427-2019.xlsx", "A 49427-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 49427-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 49427-2019.png", "A 49427-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 49427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 49427-2019.docx", "A 49427-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 49427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 49427-2019.docx", "A 49427-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 49427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 49427-2019.docx", "A 49427-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 49427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 49427-2019.docx", "A 49427-2019")</f>
         <v/>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,27 +1250,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 31912-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 31912-2020.xlsx", "A 31912-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 31912-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 31912-2020.png", "A 31912-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 31912-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 31912-2020.docx", "A 31912-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 31912-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 31912-2020.docx", "A 31912-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 31912-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 31912-2020.docx", "A 31912-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 31912-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 31912-2020.docx", "A 31912-2020")</f>
         <v/>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1340,27 +1340,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 46180-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 46180-2022.xlsx", "A 46180-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 46180-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 46180-2022.png", "A 46180-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 46180-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 46180-2022.docx", "A 46180-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 46180-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 46180-2022.docx", "A 46180-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 46180-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 46180-2022.docx", "A 46180-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 46180-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 46180-2022.docx", "A 46180-2022")</f>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,27 +1430,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 50403-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/artfynd/A 50403-2022.xlsx", "A 50403-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 50403-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/kartor/A 50403-2022.png", "A 50403-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 50403-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomål/A 50403-2022.docx", "A 50403-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 50403-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/klagomålsmail/A 50403-2022.docx", "A 50403-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 50403-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsyn/A 50403-2022.docx", "A 50403-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 50403-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MJOLBY/tillsynsmail/A 50403-2022.docx", "A 50403-2022")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45182</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45182</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45182</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45182</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45182</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45182</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45182</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45182</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45182</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>

--- a/Översikt MJÖLBY.xlsx
+++ b/Översikt MJÖLBY.xlsx
@@ -572,7 +572,7 @@
         <v>44482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43782</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44042</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44365</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43440</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>43732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44014</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44847</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44866</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43347</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43357</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>43357</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>43360</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         <v>43371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>43378</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>43398</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>43399</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>43446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>43447</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43455</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43489</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43496</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43503</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43503</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43504</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43573</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43598</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>43599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>43606</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>43614</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>43616</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>43641</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>43644</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43644</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>43649</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43675</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>43704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>43711</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43713</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43717</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43732</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>43734</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>43763</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>43766</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43770</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>43773</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43780</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43782</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>43783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43795</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43796</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43796</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43838</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>43857</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43857</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43857</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>43871</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>43871</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>43875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>43880</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>43885</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>43887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43899</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43922</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>43928</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43935</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43935</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43942</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43957</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43977</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43985</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43985</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43994</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>44006</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>44014</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>44014</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>44015</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44025</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44060</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>44068</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44071</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44076</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44077</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44081</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44091</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44130</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44152</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44152</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44159</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>44164</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>44167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>44168</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44173</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44188</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>44194</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44200</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44216</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44225</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>44228</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44229</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44242</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44243</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>44243</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>44266</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>44273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>44300</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44348</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44348</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44348</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>44365</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44365</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>44375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>44396</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44431</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>44442</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>44449</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44455</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44462</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44473</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>44480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44517</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>44522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>44545</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>44573</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>44573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44580</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44599</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44627</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44659</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44659</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44743</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44743</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44768</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>44810</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44810</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44840</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>44879</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44879</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>44888</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>44903</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>44904</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44907</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44907</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44908</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44936</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44937</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44939</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44943</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>44950</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>44971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45056</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>45146</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12077,7 +12077,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>45154</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>45161</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>45161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45182</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
